--- a/Yearly Report/Yearly-Report-2022-RO657483.xlsx
+++ b/Yearly Report/Yearly-Report-2022-RO657483.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -37,238 +37,241 @@
     <x:t>Currency</x:t>
   </x:si>
   <x:si>
-    <x:t>602659</x:t>
+    <x:t>319267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waste management services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>194872</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38974.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>233846</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>361686</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Concierge Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-11-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66056</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13211.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79267.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>684949</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Various paper supplies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>289723</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57944.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>347668</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>294660</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beverages and Catering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87768</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17553.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105322</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>766694</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45957</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9191.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55148.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>958006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15204</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3040.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18244.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>711350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45209.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>271258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>453169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76961</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15392.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92353.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110348</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Professional Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22657.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135944</x:t>
+  </x:si>
+  <x:si>
+    <x:t>910646</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>282831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56566.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>339397</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160465</x:t>
   </x:si>
   <x:si>
     <x:t>IT Support</x:t>
   </x:si>
   <x:si>
-    <x:t>2017-01-06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>160414</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32082.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>192497</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>409366</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beverages and Catering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>283825</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56765</x:t>
-  </x:si>
-  <x:si>
-    <x:t>340590</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>423385</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>181876</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36375.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>218251</x:t>
-  </x:si>
-  <x:si>
-    <x:t>491668</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Professional Services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>173499</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34699.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>208199</x:t>
-  </x:si>
-  <x:si>
-    <x:t>530068</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waste management services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>296638</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59327.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>355966</x:t>
-  </x:si>
-  <x:si>
-    <x:t>136134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91645</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18329</x:t>
-  </x:si>
-  <x:si>
-    <x:t>109974</x:t>
-  </x:si>
-  <x:si>
-    <x:t>386873</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-04-22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>214617</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42923.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>257540</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EUR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>904801</x:t>
-  </x:si>
-  <x:si>
-    <x:t>213034</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42606.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>255641</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>566105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Concierge Services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>174821</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34964.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>209785</x:t>
-  </x:si>
-  <x:si>
-    <x:t>344813</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4825.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28954.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144439</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26703</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5340.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32043.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-07-20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39954</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7990.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47944.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>612433</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-07-15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101438</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20287.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121726</x:t>
-  </x:si>
-  <x:si>
-    <x:t>139326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-07-05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>266044</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53208.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>319253</x:t>
+    <x:t>2017-06-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>261214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52242.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>313457</x:t>
+  </x:si>
+  <x:si>
+    <x:t>444160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>198911</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39782.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>238693</x:t>
+  </x:si>
+  <x:si>
+    <x:t>404944</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30775</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36930</x:t>
+  </x:si>
+  <x:si>
+    <x:t>681163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157420</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31484</x:t>
+  </x:si>
+  <x:si>
+    <x:t>188904</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -699,88 +702,88 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
         <x:v>34</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
         <x:v>13</x:v>
@@ -788,59 +791,59 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>57</x:v>
@@ -852,7 +855,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
@@ -860,7 +863,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>61</x:v>
@@ -875,7 +878,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
@@ -883,91 +886,91 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
